--- a/Analisis_vibrio/mul_correlacion.xlsx
+++ b/Analisis_vibrio/mul_correlacion.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Vibrio\Vibrio_ExpPacifico2021\Analisis_vibrio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian Bermúdez R\OneDrive - dimar.mil.co\Documentos\2023\InformeFinal_ExpPacifico\Vibrio_ExpPacifico2021\Analisis_vibrio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5861D2CB-90ED-48A4-9429-FCEA98679DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DFDB67-AC6A-4375-AC14-94DB8D23CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mul_correlacion" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
   <si>
     <t>NO2</t>
   </si>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +392,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,9 +561,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -628,6 +636,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -640,14 +655,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -960,11 +968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,18 +1984,1095 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:R18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>0.75</formula>
+      <formula>0.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>-0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0.75</formula>
-      <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B54FD94-7E99-42BF-B87A-968AA1A6D0B5}">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.67362949794373195</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.78579227948410302</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.751088186983773</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.55947717729431701</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.48014082047802198</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.63068566216464095</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.49672445937959703</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.46649277893777802</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-0.191906077902575</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.105744165374888</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.10052223128230101</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.28546573039475998</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-0.61792886762280297</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-0.41122730979123201</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>7.7174669785957703E-2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-0.31288088438084199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.67362949794373195</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.66361932067995599</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.92782608695652202</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.56987423440488205</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.61753449550004003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.609697774795805</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.56963819577574704</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.14173913043478301</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.21478260869565199</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-0.20086956521739099</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.30173913043478301</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-0.374782608695652</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6.7087909349547503E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-0.25217391304347803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.78579227948410302</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.66361932067995599</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.72240449672444096</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.55373884027895903</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.720682213588547</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.83014008145357299</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.73237794034718795</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.64663693648932696</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-8.7089149695532303E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.185499888851484</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-0.18201632286366301</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.50598795973104305</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-0.65534585145888102</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-0.222512777472085</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.29232114475125898</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-0.106684208377027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.751088186983773</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.92782608695652202</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.72240449672444096</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.703091587902127</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.69603464323309605</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.67971299715110101</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.62673377438087197</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.64173913043478303</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.52173913043478E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.37391304347826099</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-0.36173913043478301</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.420869565217391</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-0.81391304347826099</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-0.37652173913043502</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.20039245649864801</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.21913043478260899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55947717729431701</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.56987423440488205</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.55373884027895903</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.703091587902127</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.64410578609298397</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.69235834623916503</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.422839573340275</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.76273465139599195</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.142359720894115</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.478015209607762</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-0.48149801623514099</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.688725010564189</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.62211633381556597</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6.2690519292821295E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.457797262663105</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6.3996571778088401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.48014082047802198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.61753449550004003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.720682213588547</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.69603464323309605</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.64410578609298397</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.92868421273074997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.71874032096562201</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.84605714778960295</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-6.4108453981995703E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.46576754321613201</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.46751199094353302</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-0.76537644039729502</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.60139835402157804</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.157872519329812</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.52829395735106299</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6.9341797164199401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.63068566216464095</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.609697774795805</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.83014008145357299</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.67971299715110101</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.69235834623916503</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.92868421273074997</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.73098233262483903</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-0.88410526116966603</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.8271364480980301E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.46749294429778199</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.46401392703789202</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-0.73929116772672498</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.60056535448859305</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.113502938103927</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-0.52963043407743304</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.9571646709069001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.49672445937959703</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.56963819577574704</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.73237794034718795</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.62673377438087197</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.422839573340275</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.71874032096562201</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.73098233262483903</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.60345634618032096</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-9.0035335492697002E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.27361958054609897</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.26834921944408702</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-0.37156045769181301</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.65615995720043596</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.22794311766199901</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-0.25743427316758499</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-6.4561923499641294E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.46649277893777802</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.64663693648932696</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.64173913043478303</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.76273465139599195</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.84605714778960295</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.88410526116966603</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.60345634618032096</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.208695652173913</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.53304347826086995</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-0.53130434782608704</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.74869565217391298</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-0.639130434782609</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.69565217391304E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.54410908297132998</v>
+      </c>
+      <c r="R10" s="1">
+        <v>9.8260869565217401E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.191906077902575</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.14173913043478301</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-8.7089149695532303E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.52173913043478E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.142359720894115</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-6.4108453981995703E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.8271364480980301E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-9.0035335492697002E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.208695652173913</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.206086956521739</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.17652173913043501</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-5.4782608695652199E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-0.16347826086956499</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-6.9701723999529799E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-0.105744165374888</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.21478260869565199</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.185499888851484</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.37391304347826099</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.478015209607762</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.46576754321613201</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.46749294429778199</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.27361958054609897</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-0.53304347826086995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.206086956521739</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.99652173913043496</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-0.61739130434782596</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.27565217391304297</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-0.20695652173913001</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-0.61555335007084799</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-0.15304347826087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.10052223128230101</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.20086956521739099</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.18201632286366301</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.36173913043478301</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.48149801623514099</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.46751199094353302</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.46401392703789202</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.26834921944408702</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.53130434782608704</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.17652173913043501</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.99652173913043496</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-0.61913043478260898</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.27391304347826101</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-0.22086956521739101</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-0.61206826387087099</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.28546573039475998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.30173913043478301</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.50598795973104305</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.420869565217391</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.688725010564189</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.76537644039729502</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.73929116772672498</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.37156045769181301</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.74869565217391298</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-5.4782608695652199E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.61739130434782596</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-0.61913043478260898</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-0.34782608695652201</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.199130434782609</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.75016480454493994</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-2.9565217391304299E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.61792886762280297</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.65534585145888102</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.81391304347826099</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.62211633381556597</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.60139835402157804</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.60056535448859305</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.65615995720043596</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-0.639130434782609</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.16347826086956499</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.27565217391304297</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.27391304347826101</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-0.34782608695652201</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.420869565217391</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-0.13853217644906601</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5.9130434782608703E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.41122730979123201</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.374782608695652</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.222512777472085</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.37652173913043502</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.2690519292821295E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.157872519329812</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.113502938103927</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.22794311766199901</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.69565217391304E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.20695652173913001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-0.22086956521739101</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.199130434782609</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.420869565217391</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.424309244847138</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.41043478260869598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.7174669785957703E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.7087909349547503E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.29232114475125898</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.20039245649864801</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.457797262663105</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.52829395735106299</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.52963043407743304</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.25743427316758499</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.54410908297132998</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-6.9701723999529799E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.61555335007084799</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.61206826387087099</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.75016480454493994</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-0.13853217644906601</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.424309244847138</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.47222918009681503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.31288088438084199</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-0.25217391304347803</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.106684208377027</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.21913043478260899</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.3996571778088401E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.9341797164199401E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.9571646709069001E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-6.4561923499641294E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.8260869565217401E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.15304347826087</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-2.9565217391304299E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5.9130434782608703E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.41043478260869598</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.47222918009681503</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>0.75</formula>
+      <formula>0.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>-0.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>